--- a/Urendeclaratie.xlsx
+++ b/Urendeclaratie.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GSS\Documents\GitHub\Empty-Backpack\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -81,7 +76,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,7 +245,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -285,7 +280,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -462,7 +457,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -473,17 +468,17 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B5"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="27.42578125" style="1" customWidth="1"/>
     <col min="2" max="9" width="18.28515625" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="21">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -512,7 +507,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -522,10 +517,12 @@
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
+      <c r="H2" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -535,10 +532,12 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
+      <c r="H3" s="7">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -548,10 +547,12 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -561,10 +562,12 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -574,10 +577,12 @@
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="H6" s="7">
+        <v>3.125E-2</v>
+      </c>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
@@ -590,7 +595,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -601,7 +606,7 @@
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15">
       <c r="A9" s="6" t="s">
         <v>15</v>
       </c>
@@ -631,17 +636,17 @@
       </c>
       <c r="H9" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.23958333333333331</v>
       </c>
       <c r="I9" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15">
       <c r="A10" s="6"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15">
       <c r="A11" s="6"/>
     </row>
   </sheetData>

--- a/Urendeclaratie.xlsx
+++ b/Urendeclaratie.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>TAKEN</t>
   </si>
@@ -63,16 +63,37 @@
     <t>ACTIVITEITENDIAGRAMMEN</t>
   </si>
   <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>TIJD BESTEED</t>
+    <t>TOTAALDOCUMENT O1</t>
+  </si>
+  <si>
+    <t>WEEK 1</t>
+  </si>
+  <si>
+    <t>TOTAAL TIJD BESTEEED</t>
+  </si>
+  <si>
+    <t>WEEK 2</t>
+  </si>
+  <si>
+    <t>REQUIREMENTS</t>
+  </si>
+  <si>
+    <t>TOTAALDOCUMENT O2</t>
+  </si>
+  <si>
+    <t>TOTAALDOCUMENT O1 verbetering/revisie</t>
+  </si>
+  <si>
+    <t>TOTAAL TIJD PROJECT</t>
+  </si>
+  <si>
+    <t>TOTALITEIT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
@@ -114,7 +135,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -162,11 +183,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -185,9 +235,16 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -457,18 +514,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -478,7 +535,7 @@
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21">
+    <row r="1" spans="1:9" ht="20.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -507,115 +564,122 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="8"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:9" ht="15">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="F3" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7">
-        <v>0.16666666666666666</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
+      <c r="F4" s="7">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7">
-        <v>3.125E-2</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
       <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="H7" s="7">
+        <v>3.125E-2</v>
+      </c>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
-      <c r="A8" s="6"/>
+    <row r="8" spans="1:9">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="F8" s="7">
+        <v>6.9444444444444441E-3</v>
+      </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9">
       <c r="A9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="7">
-        <f>SUM(B2,B3,B4,B5,B6)</f>
+        <v>16</v>
+      </c>
+      <c r="B9" s="9">
+        <f>SUM(B8,B7,B6,B5,B4,B3)</f>
         <v>0</v>
       </c>
       <c r="C9" s="7">
-        <f t="shared" ref="C9:I9" si="0">SUM(C2,C3,C4,C5,C6)</f>
+        <f t="shared" ref="C9:I9" si="0">SUM(C8,C7,C6,C5,C4,C3)</f>
         <v>0</v>
       </c>
       <c r="D9" s="7">
@@ -628,7 +692,7 @@
       </c>
       <c r="F9" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.21527777777777776</v>
       </c>
       <c r="G9" s="7">
         <f t="shared" si="0"/>
@@ -643,11 +707,104 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15">
-      <c r="A10" s="6"/>
-    </row>
-    <row r="11" spans="1:9" ht="15">
-      <c r="A11" s="6"/>
+    <row r="10" spans="1:9">
+      <c r="A10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="12"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="12"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="12"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="12"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="12"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="12"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="9">
+        <f>SUM(B16,B9)</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="7">
+        <f t="shared" ref="C18:I18" si="1">SUM(C16,C9)</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="7">
+        <f t="shared" si="1"/>
+        <v>0.21527777777777776</v>
+      </c>
+      <c r="G18" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="7">
+        <f t="shared" si="1"/>
+        <v>0.23958333333333331</v>
+      </c>
+      <c r="I18" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Urendeclaratie.xlsx
+++ b/Urendeclaratie.xlsx
@@ -244,7 +244,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -514,7 +514,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -525,17 +525,17 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27.42578125" style="1" customWidth="1"/>
     <col min="2" max="9" width="18.28515625" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.25">
+    <row r="1" spans="1:9" ht="21">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -581,7 +581,9 @@
       <c r="F3" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="G3" s="7"/>
+      <c r="G3" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="H3" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -598,7 +600,9 @@
       <c r="F4" s="7">
         <v>0.16666666666666666</v>
       </c>
-      <c r="G4" s="7"/>
+      <c r="G4" s="7">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="H4" s="7">
         <v>0.16666666666666666</v>
       </c>
@@ -615,7 +619,9 @@
       <c r="F5" s="7">
         <v>0</v>
       </c>
-      <c r="G5" s="7"/>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
@@ -632,7 +638,9 @@
       <c r="F6" s="7">
         <v>0</v>
       </c>
-      <c r="G6" s="7"/>
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
@@ -649,7 +657,9 @@
       <c r="F7" s="7">
         <v>0</v>
       </c>
-      <c r="G7" s="7"/>
+      <c r="G7" s="7">
+        <v>4.8611111111111112E-2</v>
+      </c>
       <c r="H7" s="7">
         <v>3.125E-2</v>
       </c>
@@ -666,7 +676,9 @@
       <c r="F8" s="7">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="G8" s="7"/>
+      <c r="G8" s="7">
+        <v>0</v>
+      </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
     </row>
@@ -696,7 +708,7 @@
       </c>
       <c r="G9" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.25694444444444442</v>
       </c>
       <c r="H9" s="7">
         <f t="shared" si="0"/>
@@ -795,7 +807,7 @@
       </c>
       <c r="G18" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.25694444444444442</v>
       </c>
       <c r="H18" s="7">
         <f t="shared" si="1"/>

--- a/Urendeclaratie.xlsx
+++ b/Urendeclaratie.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -93,11 +93,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -514,28 +514,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.42578125" style="1" customWidth="1"/>
     <col min="2" max="9" width="18.28515625" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21">
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -564,17 +564,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="8"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3" s="7">
+        <v>0</v>
+      </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -589,11 +591,13 @@
       </c>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="7"/>
+      <c r="B4" s="7">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -608,11 +612,13 @@
       </c>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="7"/>
+      <c r="B5" s="7">
+        <v>0</v>
+      </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -627,11 +633,13 @@
       </c>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="7">
+        <v>3.125E-2</v>
+      </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -646,11 +654,13 @@
       </c>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="7"/>
+      <c r="B7" s="7">
+        <v>0</v>
+      </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -665,11 +675,13 @@
       </c>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="7"/>
+      <c r="B8" s="7">
+        <v>0</v>
+      </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -682,13 +694,13 @@
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="9">
         <f>SUM(B8,B7,B6,B5,B4,B3)</f>
-        <v>0</v>
+        <v>0.19791666666666666</v>
       </c>
       <c r="C9" s="7">
         <f t="shared" ref="C9:I9" si="0">SUM(C8,C7,C6,C5,C4,C3)</f>
@@ -719,7 +731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>17</v>
       </c>
@@ -732,43 +744,43 @@
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="12"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="12"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="12"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="12"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="12"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="12"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>22</v>
       </c>
@@ -781,13 +793,13 @@
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="9">
         <f>SUM(B16,B9)</f>
-        <v>0</v>
+        <v>0.19791666666666666</v>
       </c>
       <c r="C18" s="7">
         <f t="shared" ref="C18:I18" si="1">SUM(C16,C9)</f>

--- a/Urendeclaratie.xlsx
+++ b/Urendeclaratie.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GSS\Documents\GitHub\Empty-Backpack\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -216,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -242,6 +247,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,7 +520,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -525,7 +531,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,6 +761,9 @@
         <v>10</v>
       </c>
       <c r="B12" s="12"/>
+      <c r="I12" s="13">
+        <v>0.16666666666666666</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
@@ -767,12 +776,18 @@
         <v>20</v>
       </c>
       <c r="B14" s="12"/>
+      <c r="I14" s="13">
+        <v>0.16666666666666666</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="12"/>
+      <c r="I15" s="13">
+        <v>2.0833333333333332E-2</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
@@ -826,8 +841,8 @@
         <v>0.23958333333333331</v>
       </c>
       <c r="I18" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(I17,I16,I15,I14,I13,I12,I11)</f>
+        <v>0.35416666666666663</v>
       </c>
     </row>
   </sheetData>

--- a/Urendeclaratie.xlsx
+++ b/Urendeclaratie.xlsx
@@ -531,7 +531,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,6 +755,9 @@
         <v>9</v>
       </c>
       <c r="B11" s="12"/>
+      <c r="I11" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
@@ -770,6 +773,9 @@
         <v>18</v>
       </c>
       <c r="B13" s="12"/>
+      <c r="I13" s="13">
+        <v>2.0833333333333332E-2</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
@@ -777,7 +783,7 @@
       </c>
       <c r="B14" s="12"/>
       <c r="I14" s="13">
-        <v>0.16666666666666666</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -794,6 +800,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="12"/>
+      <c r="I16" s="7">
+        <f>SUM(I15,I14,I13,I12,I11,I10,I9)</f>
+        <v>0.45833333333333326</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
@@ -817,7 +827,7 @@
         <v>0.19791666666666666</v>
       </c>
       <c r="C18" s="7">
-        <f t="shared" ref="C18:I18" si="1">SUM(C16,C9)</f>
+        <f t="shared" ref="C18:H18" si="1">SUM(C16,C9)</f>
         <v>0</v>
       </c>
       <c r="D18" s="7">
@@ -841,8 +851,8 @@
         <v>0.23958333333333331</v>
       </c>
       <c r="I18" s="7">
-        <f>SUM(I17,I16,I15,I14,I13,I12,I11)</f>
-        <v>0.35416666666666663</v>
+        <f>SUM(I15,I14,I13,I12,I11)</f>
+        <v>0.45833333333333326</v>
       </c>
     </row>
   </sheetData>

--- a/Urendeclaratie.xlsx
+++ b/Urendeclaratie.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GSS\Documents\GitHub\Empty-Backpack\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -250,7 +245,7 @@
     <xf numFmtId="21" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -520,7 +515,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -530,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,7 +578,9 @@
       <c r="B3" s="7">
         <v>0</v>
       </c>
-      <c r="C3" s="7"/>
+      <c r="C3" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7">
@@ -604,7 +601,9 @@
       <c r="B4" s="7">
         <v>0.16666666666666666</v>
       </c>
-      <c r="C4" s="7"/>
+      <c r="C4" s="7">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7">
@@ -625,7 +624,9 @@
       <c r="B5" s="7">
         <v>0</v>
       </c>
-      <c r="C5" s="7"/>
+      <c r="C5" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7">
@@ -646,7 +647,9 @@
       <c r="B6" s="7">
         <v>3.125E-2</v>
       </c>
-      <c r="C6" s="7"/>
+      <c r="C6" s="7">
+        <v>0.5625</v>
+      </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7">
@@ -709,11 +712,11 @@
         <v>0.19791666666666666</v>
       </c>
       <c r="C9" s="7">
-        <f t="shared" ref="C9:I9" si="0">SUM(C8,C7,C6,C5,C4,C3)</f>
-        <v>0</v>
+        <f>SUM(C8,C7,C6,C5,C4,C3)</f>
+        <v>0.81249999999999989</v>
       </c>
       <c r="D9" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C9:I9" si="0">SUM(D8,D7,D6,D5,D4,D3)</f>
         <v>0</v>
       </c>
       <c r="E9" s="7">
@@ -755,8 +758,8 @@
         <v>9</v>
       </c>
       <c r="B11" s="12"/>
-      <c r="I11" s="13">
-        <v>0</v>
+      <c r="C11" s="7">
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -764,6 +767,9 @@
         <v>10</v>
       </c>
       <c r="B12" s="12"/>
+      <c r="C12" s="7">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="I12" s="13">
         <v>0.16666666666666666</v>
       </c>
@@ -773,8 +779,8 @@
         <v>18</v>
       </c>
       <c r="B13" s="12"/>
-      <c r="I13" s="13">
-        <v>2.0833333333333332E-2</v>
+      <c r="C13" s="7">
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -783,7 +789,7 @@
       </c>
       <c r="B14" s="12"/>
       <c r="I14" s="13">
-        <v>0.25</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -800,9 +806,9 @@
         <v>16</v>
       </c>
       <c r="B16" s="12"/>
-      <c r="I16" s="7">
-        <f>SUM(I15,I14,I13,I12,I11,I10,I9)</f>
-        <v>0.45833333333333326</v>
+      <c r="C16" s="7">
+        <f>SUM(C10,C11,C12,C13,C14,C15)</f>
+        <v>0.24999999999999997</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -828,7 +834,7 @@
       </c>
       <c r="C18" s="7">
         <f t="shared" ref="C18:H18" si="1">SUM(C16,C9)</f>
-        <v>0</v>
+        <v>1.0624999999999998</v>
       </c>
       <c r="D18" s="7">
         <f t="shared" si="1"/>
@@ -851,8 +857,8 @@
         <v>0.23958333333333331</v>
       </c>
       <c r="I18" s="7">
-        <f>SUM(I15,I14,I13,I12,I11)</f>
-        <v>0.45833333333333326</v>
+        <f>SUM(I17,I16,I15,I14,I13,I12,I11)</f>
+        <v>0.35416666666666663</v>
       </c>
     </row>
   </sheetData>

--- a/Urendeclaratie.xlsx
+++ b/Urendeclaratie.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,9 +33,6 @@
     <t>JELLE</t>
   </si>
   <si>
-    <t>SUSAN</t>
-  </si>
-  <si>
     <t>HUGO</t>
   </si>
   <si>
@@ -88,6 +85,9 @@
   </si>
   <si>
     <t>TOTALITEIT</t>
+  </si>
+  <si>
+    <t>SUZANNE</t>
   </si>
 </sst>
 </file>
@@ -525,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,30 +550,30 @@
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="8"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="7">
         <v>0</v>
@@ -582,7 +582,9 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="E3" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="F3" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -596,7 +598,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="7">
         <v>0.16666666666666666</v>
@@ -605,7 +607,9 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
+      <c r="E4" s="7">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="F4" s="7">
         <v>0.16666666666666666</v>
       </c>
@@ -619,7 +623,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="7">
         <v>0</v>
@@ -628,7 +632,9 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
       <c r="F5" s="7">
         <v>0</v>
       </c>
@@ -642,7 +648,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="7">
         <v>3.125E-2</v>
@@ -651,7 +657,9 @@
         <v>0.5625</v>
       </c>
       <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="E6" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="F6" s="7">
         <v>0</v>
       </c>
@@ -665,14 +673,16 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="7">
         <v>0</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="E7" s="7">
+        <v>0</v>
+      </c>
       <c r="F7" s="7">
         <v>0</v>
       </c>
@@ -686,14 +696,16 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="7">
         <v>0</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
       <c r="F8" s="7">
         <v>6.9444444444444441E-3</v>
       </c>
@@ -705,23 +717,23 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="9">
         <f>SUM(B8,B7,B6,B5,B4,B3)</f>
         <v>0.19791666666666666</v>
       </c>
       <c r="C9" s="7">
-        <f>SUM(C8,C7,C6,C5,C4,C3)</f>
+        <f t="shared" ref="C9:I9" si="0">SUM(C8,C7,C6,C5,C4,C3)</f>
         <v>0.81249999999999989</v>
       </c>
       <c r="D9" s="7">
-        <f t="shared" ref="C9:I9" si="0">SUM(D8,D7,D6,D5,D4,D3)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E9" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="F9" s="7">
         <f t="shared" si="0"/>
@@ -742,7 +754,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="10"/>
@@ -755,65 +767,84 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
+      <c r="E11" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="7">
         <v>0.16666666666666666</v>
       </c>
+      <c r="E12" s="7">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="I12" s="13">
         <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
+      <c r="E13" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="12"/>
+      <c r="E14" s="13">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="I14" s="13">
         <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="12"/>
+      <c r="E15" s="13">
+        <v>0</v>
+      </c>
       <c r="I15" s="13">
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="7">
         <f>SUM(C10,C11,C12,C13,C14,C15)</f>
         <v>0.24999999999999997</v>
       </c>
+      <c r="E16" s="7">
+        <f>SUM(E10,E11,E12,E13,E14,E15)</f>
+        <v>0.29166666666666663</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="10"/>
@@ -826,7 +857,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="9">
         <f>SUM(B16,B9)</f>
@@ -842,7 +873,7 @@
       </c>
       <c r="E18" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.58333333333333326</v>
       </c>
       <c r="F18" s="7">
         <f t="shared" si="1"/>

--- a/Urendeclaratie.xlsx
+++ b/Urendeclaratie.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GSS\Documents\GitHub\Empty-Backpack\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -216,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -243,9 +248,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="21" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="46" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -515,7 +521,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -526,7 +532,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,7 +600,9 @@
       <c r="H3" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="I3" s="7"/>
+      <c r="I3" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -619,7 +627,9 @@
       <c r="H4" s="7">
         <v>0.16666666666666666</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="13">
+        <v>0.16666666666666666</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -644,7 +654,9 @@
       <c r="H5" s="7">
         <v>0</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -669,7 +681,9 @@
       <c r="H6" s="7">
         <v>0</v>
       </c>
-      <c r="I6" s="7"/>
+      <c r="I6" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -692,7 +706,9 @@
       <c r="H7" s="7">
         <v>3.125E-2</v>
       </c>
-      <c r="I7" s="7"/>
+      <c r="I7" s="7">
+        <v>8.3333333333333329E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -713,7 +729,9 @@
         <v>0</v>
       </c>
       <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
+      <c r="I8" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
@@ -749,7 +767,7 @@
       </c>
       <c r="I9" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.45833333333333331</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -776,6 +794,9 @@
       <c r="E11" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
+      <c r="I11" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
@@ -803,6 +824,9 @@
       <c r="E13" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
+      <c r="I13" s="13">
+        <v>1.3888888888888888E-2</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
@@ -813,7 +837,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="I14" s="13">
-        <v>0.16666666666666666</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -840,6 +864,10 @@
       <c r="E16" s="7">
         <f>SUM(E10,E11,E12,E13,E14,E15)</f>
         <v>0.29166666666666663</v>
+      </c>
+      <c r="I16" s="14">
+        <f>SUM(I11,I12,I13,I14,I15)</f>
+        <v>0.4513888888888889</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -888,8 +916,8 @@
         <v>0.23958333333333331</v>
       </c>
       <c r="I18" s="7">
-        <f>SUM(I17,I16,I15,I14,I13,I12,I11)</f>
-        <v>0.35416666666666663</v>
+        <f>SUM(I9,I16)</f>
+        <v>0.90972222222222221</v>
       </c>
     </row>
   </sheetData>

--- a/Urendeclaratie.xlsx
+++ b/Urendeclaratie.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GSS\Documents\GitHub\Empty-Backpack\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -221,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -246,9 +241,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="21" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="46" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -521,7 +514,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -532,7 +525,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,7 +620,7 @@
       <c r="H4" s="7">
         <v>0.16666666666666666</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="12">
         <v>0.16666666666666666</v>
       </c>
     </row>
@@ -787,14 +780,16 @@
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="12"/>
+      <c r="B11" s="9">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="C11" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E11" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="12">
         <v>0</v>
       </c>
     </row>
@@ -802,14 +797,16 @@
       <c r="A12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="12"/>
+      <c r="B12" s="9">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="C12" s="7">
         <v>0.16666666666666666</v>
       </c>
       <c r="E12" s="7">
         <v>0.16666666666666666</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="12">
         <v>0.16666666666666666</v>
       </c>
     </row>
@@ -817,14 +814,16 @@
       <c r="A13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="12"/>
+      <c r="B13" s="9">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="C13" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E13" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="12">
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
@@ -832,11 +831,13 @@
       <c r="A14" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="E14" s="13">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="I14" s="13">
+      <c r="B14" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="E14" s="12">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="I14" s="12">
         <v>0.25</v>
       </c>
     </row>
@@ -844,11 +845,11 @@
       <c r="A15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="E15" s="13">
-        <v>0</v>
-      </c>
-      <c r="I15" s="13">
+      <c r="B15" s="9"/>
+      <c r="E15" s="12">
+        <v>0</v>
+      </c>
+      <c r="I15" s="12">
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
@@ -856,17 +857,36 @@
       <c r="A16" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="7">
-        <f>SUM(C10,C11,C12,C13,C14,C15)</f>
+      <c r="B16" s="9">
+        <f>SUM(B11:B15)</f>
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="C16" s="9">
+        <f t="shared" ref="C16:I16" si="1">SUM(C11:C15)</f>
         <v>0.24999999999999997</v>
       </c>
-      <c r="E16" s="7">
-        <f>SUM(E10,E11,E12,E13,E14,E15)</f>
+      <c r="D16" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="9">
+        <f t="shared" si="1"/>
         <v>0.29166666666666663</v>
       </c>
-      <c r="I16" s="14">
-        <f>SUM(I11,I12,I13,I14,I15)</f>
+      <c r="F16" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="9">
+        <f t="shared" si="1"/>
         <v>0.4513888888888889</v>
       </c>
     </row>
@@ -889,30 +909,30 @@
       </c>
       <c r="B18" s="9">
         <f>SUM(B16,B9)</f>
-        <v>0.19791666666666666</v>
+        <v>0.46875</v>
       </c>
       <c r="C18" s="7">
-        <f t="shared" ref="C18:H18" si="1">SUM(C16,C9)</f>
+        <f t="shared" ref="C18:H18" si="2">SUM(C16,C9)</f>
         <v>1.0624999999999998</v>
       </c>
       <c r="D18" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E18" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.58333333333333326</v>
       </c>
       <c r="F18" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.21527777777777776</v>
       </c>
       <c r="G18" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.25694444444444442</v>
       </c>
       <c r="H18" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.23958333333333331</v>
       </c>
       <c r="I18" s="7">

--- a/Urendeclaratie.xlsx
+++ b/Urendeclaratie.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -93,11 +93,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -514,28 +514,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27.42578125" style="1" customWidth="1"/>
     <col min="2" max="9" width="18.28515625" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="21">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -564,13 +564,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="8"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -597,7 +597,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -624,7 +624,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -651,7 +651,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -678,7 +678,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -703,7 +703,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -726,7 +726,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="6" t="s">
         <v>15</v>
       </c>
@@ -763,7 +763,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="10" t="s">
         <v>16</v>
       </c>
@@ -776,7 +776,7 @@
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
@@ -789,11 +789,14 @@
       <c r="E11" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
+      <c r="G11" s="12">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="I11" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="11" t="s">
         <v>9</v>
       </c>
@@ -806,11 +809,14 @@
       <c r="E12" s="7">
         <v>0.16666666666666666</v>
       </c>
+      <c r="G12" s="12">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="I12" s="12">
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="11" t="s">
         <v>17</v>
       </c>
@@ -823,11 +829,14 @@
       <c r="E13" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
+      <c r="G13" s="12">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="I13" s="12">
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="11" t="s">
         <v>19</v>
       </c>
@@ -837,11 +846,14 @@
       <c r="E14" s="12">
         <v>4.1666666666666664E-2</v>
       </c>
+      <c r="G14" s="12">
+        <v>0</v>
+      </c>
       <c r="I14" s="12">
         <v>0.25</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="11" t="s">
         <v>18</v>
       </c>
@@ -849,11 +861,14 @@
       <c r="E15" s="12">
         <v>0</v>
       </c>
+      <c r="G15" s="12">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="I15" s="12">
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="11" t="s">
         <v>15</v>
       </c>
@@ -879,7 +894,7 @@
       </c>
       <c r="G16" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.3125</v>
       </c>
       <c r="H16" s="9">
         <f t="shared" si="1"/>
@@ -890,7 +905,7 @@
         <v>0.4513888888888889</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="10" t="s">
         <v>21</v>
       </c>
@@ -903,7 +918,7 @@
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="6" t="s">
         <v>20</v>
       </c>
@@ -929,7 +944,7 @@
       </c>
       <c r="G18" s="7">
         <f t="shared" si="2"/>
-        <v>0.25694444444444442</v>
+        <v>0.56944444444444442</v>
       </c>
       <c r="H18" s="7">
         <f t="shared" si="2"/>

--- a/Urendeclaratie.xlsx
+++ b/Urendeclaratie.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GSS\Documents\GitHub\Empty-Backpack\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -93,11 +98,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -514,28 +519,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.42578125" style="1" customWidth="1"/>
     <col min="2" max="9" width="18.28515625" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21">
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -564,13 +569,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="8"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -580,7 +585,9 @@
       <c r="C3" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="E3" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -597,7 +604,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -607,7 +614,9 @@
       <c r="C4" s="7">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="E4" s="7">
         <v>0.16666666666666666</v>
       </c>
@@ -624,7 +633,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -651,7 +660,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -678,7 +687,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -686,7 +695,9 @@
         <v>0</v>
       </c>
       <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
+      <c r="D7" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="E7" s="7">
         <v>0</v>
       </c>
@@ -703,7 +714,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -711,7 +722,9 @@
         <v>0</v>
       </c>
       <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="D8" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="E8" s="7">
         <v>0</v>
       </c>
@@ -726,7 +739,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>15</v>
       </c>
@@ -740,7 +753,7 @@
       </c>
       <c r="D9" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="E9" s="7">
         <f t="shared" si="0"/>
@@ -763,7 +776,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>16</v>
       </c>
@@ -776,7 +789,7 @@
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
@@ -786,6 +799,9 @@
       <c r="C11" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
+      <c r="D11" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="E11" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -796,7 +812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>9</v>
       </c>
@@ -806,6 +822,9 @@
       <c r="C12" s="7">
         <v>0.16666666666666666</v>
       </c>
+      <c r="D12" s="7">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="E12" s="7">
         <v>0.16666666666666666</v>
       </c>
@@ -816,7 +835,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>17</v>
       </c>
@@ -826,6 +845,9 @@
       <c r="C13" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
+      <c r="D13" s="12">
+        <v>1.3888888888888888E-2</v>
+      </c>
       <c r="E13" s="7">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -836,13 +858,16 @@
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="9">
         <v>2.0833333333333332E-2</v>
       </c>
+      <c r="D14" s="12">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="E14" s="12">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -853,7 +878,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>18</v>
       </c>
@@ -868,7 +893,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>15</v>
       </c>
@@ -882,7 +907,7 @@
       </c>
       <c r="D16" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.24305555555555555</v>
       </c>
       <c r="E16" s="9">
         <f t="shared" si="1"/>
@@ -905,7 +930,7 @@
         <v>0.4513888888888889</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>21</v>
       </c>
@@ -918,7 +943,7 @@
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>20</v>
       </c>
@@ -932,7 +957,7 @@
       </c>
       <c r="D18" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.53472222222222221</v>
       </c>
       <c r="E18" s="7">
         <f t="shared" si="2"/>

--- a/Urendeclaratie.xlsx
+++ b/Urendeclaratie.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GSS\Documents\GitHub\Empty-Backpack\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="144525" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="28">
   <si>
     <t>TAKEN</t>
   </si>
@@ -86,13 +81,28 @@
     <t>TOTAALDOCUMENT O1 verbetering/revisie</t>
   </si>
   <si>
-    <t>TOTAAL TIJD PROJECT</t>
-  </si>
-  <si>
-    <t>TOTALITEIT</t>
-  </si>
-  <si>
     <t>SUZANNE</t>
+  </si>
+  <si>
+    <t>WEEK 3</t>
+  </si>
+  <si>
+    <t>WEEK 4</t>
+  </si>
+  <si>
+    <t>WEEK 5</t>
+  </si>
+  <si>
+    <t>WEEK 6</t>
+  </si>
+  <si>
+    <t>WEEK 7</t>
+  </si>
+  <si>
+    <t>WEEK 8</t>
+  </si>
+  <si>
+    <t>Totaal over alle weken:</t>
   </si>
 </sst>
 </file>
@@ -221,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -247,6 +257,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="21" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,7 +531,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -527,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="K63" sqref="K63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,7 +566,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>4</v>
@@ -743,37 +755,37 @@
       <c r="A9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="9">
-        <f>SUM(B8,B7,B6,B5,B4,B3)</f>
-        <v>0.19791666666666666</v>
-      </c>
-      <c r="C9" s="7">
-        <f t="shared" ref="C9:I9" si="0">SUM(C8,C7,C6,C5,C4,C3)</f>
-        <v>0.81249999999999989</v>
-      </c>
-      <c r="D9" s="7">
+      <c r="B9" s="13">
+        <f>SUM(B3:B8)*24</f>
+        <v>4.75</v>
+      </c>
+      <c r="C9" s="13">
+        <f t="shared" ref="C9:I9" si="0">SUM(C3:C8)*24</f>
+        <v>19.5</v>
+      </c>
+      <c r="D9" s="13">
         <f t="shared" si="0"/>
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="E9" s="7">
+        <v>6.9999999999999991</v>
+      </c>
+      <c r="E9" s="13">
         <f t="shared" si="0"/>
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="F9" s="7">
+        <v>6.9999999999999991</v>
+      </c>
+      <c r="F9" s="13">
         <f t="shared" si="0"/>
-        <v>0.21527777777777776</v>
-      </c>
-      <c r="G9" s="7">
+        <v>5.1666666666666661</v>
+      </c>
+      <c r="G9" s="13">
         <f t="shared" si="0"/>
-        <v>0.25694444444444442</v>
-      </c>
-      <c r="H9" s="7">
+        <v>6.1666666666666661</v>
+      </c>
+      <c r="H9" s="13">
         <f t="shared" si="0"/>
-        <v>0.23958333333333331</v>
-      </c>
-      <c r="I9" s="7">
+        <v>5.75</v>
+      </c>
+      <c r="I9" s="13">
         <f t="shared" si="0"/>
-        <v>0.45833333333333331</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -897,37 +909,37 @@
       <c r="A16" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="9">
-        <f>SUM(B11:B15)</f>
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="C16" s="9">
-        <f t="shared" ref="C16:I16" si="1">SUM(C11:C15)</f>
-        <v>0.24999999999999997</v>
-      </c>
-      <c r="D16" s="9">
+      <c r="B16" s="13">
+        <f>SUM(B10:B15)*24</f>
+        <v>6.5</v>
+      </c>
+      <c r="C16" s="13">
+        <f t="shared" ref="C16:I16" si="1">SUM(C10:C15)*24</f>
+        <v>5.9999999999999991</v>
+      </c>
+      <c r="D16" s="13">
         <f t="shared" si="1"/>
-        <v>0.24305555555555555</v>
-      </c>
-      <c r="E16" s="9">
+        <v>5.833333333333333</v>
+      </c>
+      <c r="E16" s="13">
         <f t="shared" si="1"/>
-        <v>0.29166666666666663</v>
-      </c>
-      <c r="F16" s="9">
+        <v>6.9999999999999991</v>
+      </c>
+      <c r="F16" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="13">
         <f t="shared" si="1"/>
-        <v>0.3125</v>
-      </c>
-      <c r="H16" s="9">
+        <v>7.5</v>
+      </c>
+      <c r="H16" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="13">
         <f t="shared" si="1"/>
-        <v>0.4513888888888889</v>
+        <v>10.833333333333334</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -945,39 +957,638 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="9">
-        <f>SUM(B16,B9)</f>
-        <v>0.46875</v>
-      </c>
-      <c r="C18" s="7">
-        <f t="shared" ref="C18:H18" si="2">SUM(C16,C9)</f>
-        <v>1.0624999999999998</v>
-      </c>
-      <c r="D18" s="7">
-        <f t="shared" si="2"/>
-        <v>0.53472222222222221</v>
-      </c>
-      <c r="E18" s="7">
-        <f t="shared" si="2"/>
-        <v>0.58333333333333326</v>
-      </c>
-      <c r="F18" s="7">
-        <f t="shared" si="2"/>
-        <v>0.21527777777777776</v>
-      </c>
-      <c r="G18" s="7">
-        <f t="shared" si="2"/>
-        <v>0.56944444444444442</v>
-      </c>
-      <c r="H18" s="7">
-        <f t="shared" si="2"/>
-        <v>0.23958333333333331</v>
-      </c>
-      <c r="I18" s="7">
-        <f>SUM(I9,I16)</f>
-        <v>0.90972222222222221</v>
+        <v>8</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="G18" s="12"/>
+      <c r="I18" s="12"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="G19" s="12"/>
+      <c r="I19" s="12"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="7"/>
+      <c r="G20" s="12"/>
+      <c r="I20" s="12"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="I21" s="12"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="E22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="I22" s="12"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="13">
+        <f>SUM(B17:B22)*24</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="13">
+        <f t="shared" ref="C23" si="2">SUM(C17:C22)*24</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="13">
+        <f t="shared" ref="D23" si="3">SUM(D17:D22)*24</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="13">
+        <f t="shared" ref="E23" si="4">SUM(E17:E22)*24</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="13">
+        <f t="shared" ref="F23" si="5">SUM(F17:F22)*24</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="13">
+        <f t="shared" ref="G23" si="6">SUM(G17:G22)*24</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="13">
+        <f t="shared" ref="H23" si="7">SUM(H17:H22)*24</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="13">
+        <f t="shared" ref="I23" si="8">SUM(I17:I22)*24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="G25" s="12"/>
+      <c r="I25" s="12"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="G26" s="12"/>
+      <c r="I26" s="12"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="7"/>
+      <c r="G27" s="12"/>
+      <c r="I27" s="12"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="I28" s="12"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="9"/>
+      <c r="E29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="I29" s="12"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="13">
+        <f>SUM(B24:B29)*24</f>
+        <v>0</v>
+      </c>
+      <c r="C30" s="13">
+        <f t="shared" ref="C30" si="9">SUM(C24:C29)*24</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="13">
+        <f t="shared" ref="D30" si="10">SUM(D24:D29)*24</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="13">
+        <f t="shared" ref="E30" si="11">SUM(E24:E29)*24</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="13">
+        <f t="shared" ref="F30" si="12">SUM(F24:F29)*24</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="13">
+        <f t="shared" ref="G30" si="13">SUM(G24:G29)*24</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="13">
+        <f t="shared" ref="H30" si="14">SUM(H24:H29)*24</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="13">
+        <f t="shared" ref="I30" si="15">SUM(I24:I29)*24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="G32" s="12"/>
+      <c r="I32" s="12"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="9"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="G33" s="12"/>
+      <c r="I33" s="12"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="9"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="7"/>
+      <c r="G34" s="12"/>
+      <c r="I34" s="12"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="9"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="I35" s="12"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="9"/>
+      <c r="E36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="I36" s="12"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="13">
+        <f>SUM(B31:B36)*24</f>
+        <v>0</v>
+      </c>
+      <c r="C37" s="13">
+        <f t="shared" ref="C37" si="16">SUM(C31:C36)*24</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="13">
+        <f t="shared" ref="D37" si="17">SUM(D31:D36)*24</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="13">
+        <f t="shared" ref="E37" si="18">SUM(E31:E36)*24</f>
+        <v>0</v>
+      </c>
+      <c r="F37" s="13">
+        <f t="shared" ref="F37" si="19">SUM(F31:F36)*24</f>
+        <v>0</v>
+      </c>
+      <c r="G37" s="13">
+        <f t="shared" ref="G37" si="20">SUM(G31:G36)*24</f>
+        <v>0</v>
+      </c>
+      <c r="H37" s="13">
+        <f t="shared" ref="H37" si="21">SUM(H31:H36)*24</f>
+        <v>0</v>
+      </c>
+      <c r="I37" s="13">
+        <f t="shared" ref="I37" si="22">SUM(I31:I36)*24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="8"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="9"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="G39" s="12"/>
+      <c r="I39" s="12"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="9"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="G40" s="12"/>
+      <c r="I40" s="12"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" s="9"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="7"/>
+      <c r="G41" s="12"/>
+      <c r="I41" s="12"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" s="9"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="I42" s="12"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" s="9"/>
+      <c r="E43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="I43" s="12"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" s="13">
+        <f>SUM(B38:B43)*24</f>
+        <v>0</v>
+      </c>
+      <c r="C44" s="13">
+        <f t="shared" ref="C44" si="23">SUM(C38:C43)*24</f>
+        <v>0</v>
+      </c>
+      <c r="D44" s="13">
+        <f t="shared" ref="D44" si="24">SUM(D38:D43)*24</f>
+        <v>0</v>
+      </c>
+      <c r="E44" s="13">
+        <f t="shared" ref="E44" si="25">SUM(E38:E43)*24</f>
+        <v>0</v>
+      </c>
+      <c r="F44" s="13">
+        <f t="shared" ref="F44" si="26">SUM(F38:F43)*24</f>
+        <v>0</v>
+      </c>
+      <c r="G44" s="13">
+        <f t="shared" ref="G44" si="27">SUM(G38:G43)*24</f>
+        <v>0</v>
+      </c>
+      <c r="H44" s="13">
+        <f t="shared" ref="H44" si="28">SUM(H38:H43)*24</f>
+        <v>0</v>
+      </c>
+      <c r="I44" s="13">
+        <f t="shared" ref="I44" si="29">SUM(I38:I43)*24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45" s="8"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="9"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="G46" s="12"/>
+      <c r="I46" s="12"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" s="9"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="G47" s="12"/>
+      <c r="I47" s="12"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" s="9"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="7"/>
+      <c r="G48" s="12"/>
+      <c r="I48" s="12"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B49" s="9"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="I49" s="12"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" s="9"/>
+      <c r="E50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="I50" s="12"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51" s="13">
+        <f>SUM(B45:B50)*24</f>
+        <v>0</v>
+      </c>
+      <c r="C51" s="13">
+        <f t="shared" ref="C51" si="30">SUM(C45:C50)*24</f>
+        <v>0</v>
+      </c>
+      <c r="D51" s="13">
+        <f t="shared" ref="D51" si="31">SUM(D45:D50)*24</f>
+        <v>0</v>
+      </c>
+      <c r="E51" s="13">
+        <f t="shared" ref="E51" si="32">SUM(E45:E50)*24</f>
+        <v>0</v>
+      </c>
+      <c r="F51" s="13">
+        <f t="shared" ref="F51" si="33">SUM(F45:F50)*24</f>
+        <v>0</v>
+      </c>
+      <c r="G51" s="13">
+        <f t="shared" ref="G51" si="34">SUM(G45:G50)*24</f>
+        <v>0</v>
+      </c>
+      <c r="H51" s="13">
+        <f t="shared" ref="H51" si="35">SUM(H45:H50)*24</f>
+        <v>0</v>
+      </c>
+      <c r="I51" s="13">
+        <f t="shared" ref="I51" si="36">SUM(I45:I50)*24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52" s="8"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="9"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="G53" s="12"/>
+      <c r="I53" s="12"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" s="9"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="G54" s="12"/>
+      <c r="I54" s="12"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B55" s="9"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="7"/>
+      <c r="G55" s="12"/>
+      <c r="I55" s="12"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B56" s="9"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="I56" s="12"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B57" s="9"/>
+      <c r="E57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="I57" s="12"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B58" s="13">
+        <f>SUM(B52:B57)*24</f>
+        <v>0</v>
+      </c>
+      <c r="C58" s="13">
+        <f t="shared" ref="C58" si="37">SUM(C52:C57)*24</f>
+        <v>0</v>
+      </c>
+      <c r="D58" s="13">
+        <f t="shared" ref="D58" si="38">SUM(D52:D57)*24</f>
+        <v>0</v>
+      </c>
+      <c r="E58" s="13">
+        <f t="shared" ref="E58" si="39">SUM(E52:E57)*24</f>
+        <v>0</v>
+      </c>
+      <c r="F58" s="13">
+        <f t="shared" ref="F58" si="40">SUM(F52:F57)*24</f>
+        <v>0</v>
+      </c>
+      <c r="G58" s="13">
+        <f t="shared" ref="G58" si="41">SUM(G52:G57)*24</f>
+        <v>0</v>
+      </c>
+      <c r="H58" s="13">
+        <f t="shared" ref="H58" si="42">SUM(H52:H57)*24</f>
+        <v>0</v>
+      </c>
+      <c r="I58" s="13">
+        <f t="shared" ref="I58" si="43">SUM(I52:I57)*24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B60" s="14">
+        <f>SUM(B58,B51,B44,B37,B30,B23,B16,B9)</f>
+        <v>11.25</v>
+      </c>
+      <c r="C60" s="14">
+        <f t="shared" ref="C60:I60" si="44">SUM(C58,C51,C44,C37,C30,C23,C16,C9)</f>
+        <v>25.5</v>
+      </c>
+      <c r="D60" s="14">
+        <f t="shared" si="44"/>
+        <v>12.833333333333332</v>
+      </c>
+      <c r="E60" s="14">
+        <f t="shared" si="44"/>
+        <v>13.999999999999998</v>
+      </c>
+      <c r="F60" s="14">
+        <f t="shared" si="44"/>
+        <v>5.1666666666666661</v>
+      </c>
+      <c r="G60" s="14">
+        <f t="shared" si="44"/>
+        <v>13.666666666666666</v>
+      </c>
+      <c r="H60" s="14">
+        <f t="shared" si="44"/>
+        <v>5.75</v>
+      </c>
+      <c r="I60" s="14">
+        <f t="shared" si="44"/>
+        <v>21.833333333333336</v>
       </c>
     </row>
   </sheetData>

--- a/Urendeclaratie.xlsx
+++ b/Urendeclaratie.xlsx
@@ -531,7 +531,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -542,7 +542,7 @@
   <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K63" sqref="K63"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,7 +680,7 @@
         <v>3.125E-2</v>
       </c>
       <c r="C6" s="7">
-        <v>0.5625</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7">
@@ -761,7 +761,7 @@
       </c>
       <c r="C9" s="13">
         <f t="shared" ref="C9:I9" si="0">SUM(C3:C8)*24</f>
-        <v>19.5</v>
+        <v>7.3333333333333321</v>
       </c>
       <c r="D9" s="13">
         <f t="shared" si="0"/>
@@ -1564,7 +1564,7 @@
       </c>
       <c r="C60" s="14">
         <f t="shared" ref="C60:I60" si="44">SUM(C58,C51,C44,C37,C30,C23,C16,C9)</f>
-        <v>25.5</v>
+        <v>13.333333333333332</v>
       </c>
       <c r="D60" s="14">
         <f t="shared" si="44"/>

--- a/Urendeclaratie.xlsx
+++ b/Urendeclaratie.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" iterateDelta="1E-4"/>
+  <calcPr calcId="125725" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="29">
   <si>
     <t>TAKEN</t>
   </si>
@@ -103,16 +103,19 @@
   </si>
   <si>
     <t>Totaal over alle weken:</t>
+  </si>
+  <si>
+    <t>TOTAALDOCUMENT O4 verbetering/revisie</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,7 +264,7 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -531,28 +534,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27.42578125" style="1" customWidth="1"/>
     <col min="2" max="9" width="18.28515625" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="21">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -581,13 +584,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="8"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -616,7 +619,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -645,7 +648,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -672,7 +675,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -699,7 +702,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -726,7 +729,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -751,7 +754,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="6" t="s">
         <v>15</v>
       </c>
@@ -788,7 +791,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="10" t="s">
         <v>16</v>
       </c>
@@ -801,7 +804,7 @@
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
@@ -824,7 +827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="11" t="s">
         <v>9</v>
       </c>
@@ -847,7 +850,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="11" t="s">
         <v>17</v>
       </c>
@@ -870,7 +873,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="11" t="s">
         <v>19</v>
       </c>
@@ -890,7 +893,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="11" t="s">
         <v>18</v>
       </c>
@@ -905,7 +908,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="11" t="s">
         <v>15</v>
       </c>
@@ -942,7 +945,7 @@
         <v>10.833333333333334</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="10" t="s">
         <v>21</v>
       </c>
@@ -955,32 +958,34 @@
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
+      <c r="D18" s="7">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="E18" s="7"/>
       <c r="G18" s="12"/>
       <c r="I18" s="12"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
+      <c r="D19" s="7">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="E19" s="7"/>
       <c r="G19" s="12"/>
       <c r="I19" s="12"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>17</v>
-      </c>
+    <row r="20" spans="1:9">
+      <c r="A20" s="11"/>
       <c r="B20" s="9"/>
       <c r="C20" s="7"/>
       <c r="D20" s="12"/>
@@ -988,17 +993,19 @@
       <c r="G20" s="12"/>
       <c r="I20" s="12"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="11" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B21" s="9"/>
-      <c r="D21" s="12"/>
+      <c r="D21" s="12">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="E21" s="12"/>
       <c r="G21" s="12"/>
       <c r="I21" s="12"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="11" t="s">
         <v>18</v>
       </c>
@@ -1007,7 +1014,7 @@
       <c r="G22" s="12"/>
       <c r="I22" s="12"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="11" t="s">
         <v>15</v>
       </c>
@@ -1021,7 +1028,7 @@
       </c>
       <c r="D23" s="13">
         <f t="shared" ref="D23" si="3">SUM(D17:D22)*24</f>
-        <v>0</v>
+        <v>5.9999999999999991</v>
       </c>
       <c r="E23" s="13">
         <f t="shared" ref="E23" si="4">SUM(E17:E22)*24</f>
@@ -1044,7 +1051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="10" t="s">
         <v>22</v>
       </c>
@@ -1057,7 +1064,7 @@
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="6" t="s">
         <v>8</v>
       </c>
@@ -1068,7 +1075,7 @@
       <c r="G25" s="12"/>
       <c r="I25" s="12"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="11" t="s">
         <v>9</v>
       </c>
@@ -1079,7 +1086,7 @@
       <c r="G26" s="12"/>
       <c r="I26" s="12"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="11" t="s">
         <v>17</v>
       </c>
@@ -1090,7 +1097,7 @@
       <c r="G27" s="12"/>
       <c r="I27" s="12"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" s="11" t="s">
         <v>19</v>
       </c>
@@ -1100,7 +1107,7 @@
       <c r="G28" s="12"/>
       <c r="I28" s="12"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="11" t="s">
         <v>18</v>
       </c>
@@ -1109,7 +1116,7 @@
       <c r="G29" s="12"/>
       <c r="I29" s="12"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="11" t="s">
         <v>15</v>
       </c>
@@ -1146,7 +1153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" s="10" t="s">
         <v>23</v>
       </c>
@@ -1159,7 +1166,7 @@
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="6" t="s">
         <v>8</v>
       </c>
@@ -1170,7 +1177,7 @@
       <c r="G32" s="12"/>
       <c r="I32" s="12"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" s="11" t="s">
         <v>9</v>
       </c>
@@ -1181,7 +1188,7 @@
       <c r="G33" s="12"/>
       <c r="I33" s="12"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" s="11" t="s">
         <v>17</v>
       </c>
@@ -1192,7 +1199,7 @@
       <c r="G34" s="12"/>
       <c r="I34" s="12"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" s="11" t="s">
         <v>19</v>
       </c>
@@ -1202,7 +1209,7 @@
       <c r="G35" s="12"/>
       <c r="I35" s="12"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36" s="11" t="s">
         <v>18</v>
       </c>
@@ -1211,7 +1218,7 @@
       <c r="G36" s="12"/>
       <c r="I36" s="12"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="A37" s="11" t="s">
         <v>15</v>
       </c>
@@ -1248,7 +1255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9">
       <c r="A38" s="10" t="s">
         <v>24</v>
       </c>
@@ -1261,7 +1268,7 @@
       <c r="H38" s="10"/>
       <c r="I38" s="10"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9">
       <c r="A39" s="6" t="s">
         <v>8</v>
       </c>
@@ -1272,7 +1279,7 @@
       <c r="G39" s="12"/>
       <c r="I39" s="12"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9">
       <c r="A40" s="11" t="s">
         <v>9</v>
       </c>
@@ -1283,7 +1290,7 @@
       <c r="G40" s="12"/>
       <c r="I40" s="12"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9">
       <c r="A41" s="11" t="s">
         <v>17</v>
       </c>
@@ -1294,7 +1301,7 @@
       <c r="G41" s="12"/>
       <c r="I41" s="12"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9">
       <c r="A42" s="11" t="s">
         <v>19</v>
       </c>
@@ -1304,7 +1311,7 @@
       <c r="G42" s="12"/>
       <c r="I42" s="12"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9">
       <c r="A43" s="11" t="s">
         <v>18</v>
       </c>
@@ -1313,7 +1320,7 @@
       <c r="G43" s="12"/>
       <c r="I43" s="12"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9">
       <c r="A44" s="11" t="s">
         <v>15</v>
       </c>
@@ -1350,7 +1357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9">
       <c r="A45" s="10" t="s">
         <v>25</v>
       </c>
@@ -1363,7 +1370,7 @@
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9">
       <c r="A46" s="6" t="s">
         <v>8</v>
       </c>
@@ -1374,7 +1381,7 @@
       <c r="G46" s="12"/>
       <c r="I46" s="12"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9">
       <c r="A47" s="11" t="s">
         <v>9</v>
       </c>
@@ -1385,7 +1392,7 @@
       <c r="G47" s="12"/>
       <c r="I47" s="12"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9">
       <c r="A48" s="11" t="s">
         <v>17</v>
       </c>
@@ -1396,7 +1403,7 @@
       <c r="G48" s="12"/>
       <c r="I48" s="12"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9">
       <c r="A49" s="11" t="s">
         <v>19</v>
       </c>
@@ -1406,7 +1413,7 @@
       <c r="G49" s="12"/>
       <c r="I49" s="12"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9">
       <c r="A50" s="11" t="s">
         <v>18</v>
       </c>
@@ -1415,7 +1422,7 @@
       <c r="G50" s="12"/>
       <c r="I50" s="12"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9">
       <c r="A51" s="11" t="s">
         <v>15</v>
       </c>
@@ -1452,7 +1459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9">
       <c r="A52" s="10" t="s">
         <v>26</v>
       </c>
@@ -1465,7 +1472,7 @@
       <c r="H52" s="10"/>
       <c r="I52" s="10"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9">
       <c r="A53" s="6" t="s">
         <v>8</v>
       </c>
@@ -1476,7 +1483,7 @@
       <c r="G53" s="12"/>
       <c r="I53" s="12"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9">
       <c r="A54" s="11" t="s">
         <v>9</v>
       </c>
@@ -1487,7 +1494,7 @@
       <c r="G54" s="12"/>
       <c r="I54" s="12"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9">
       <c r="A55" s="11" t="s">
         <v>17</v>
       </c>
@@ -1498,7 +1505,7 @@
       <c r="G55" s="12"/>
       <c r="I55" s="12"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9">
       <c r="A56" s="11" t="s">
         <v>19</v>
       </c>
@@ -1508,7 +1515,7 @@
       <c r="G56" s="12"/>
       <c r="I56" s="12"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9">
       <c r="A57" s="11" t="s">
         <v>18</v>
       </c>
@@ -1517,7 +1524,7 @@
       <c r="G57" s="12"/>
       <c r="I57" s="12"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9">
       <c r="A58" s="11" t="s">
         <v>15</v>
       </c>
@@ -1554,7 +1561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
         <v>27</v>
       </c>
@@ -1568,7 +1575,7 @@
       </c>
       <c r="D60" s="14">
         <f t="shared" si="44"/>
-        <v>12.833333333333332</v>
+        <v>18.833333333333332</v>
       </c>
       <c r="E60" s="14">
         <f t="shared" si="44"/>

--- a/Urendeclaratie.xlsx
+++ b/Urendeclaratie.xlsx
@@ -264,7 +264,7 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -534,7 +534,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -544,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -968,7 +968,9 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E18" s="7"/>
-      <c r="G18" s="12"/>
+      <c r="G18" s="12">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="I18" s="12"/>
     </row>
     <row r="19" spans="1:9">
@@ -981,7 +983,9 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="E19" s="7"/>
-      <c r="G19" s="12"/>
+      <c r="G19" s="12">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="I19" s="12"/>
     </row>
     <row r="20" spans="1:9">
@@ -1040,7 +1044,7 @@
       </c>
       <c r="G23" s="13">
         <f t="shared" ref="G23" si="6">SUM(G17:G22)*24</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H23" s="13">
         <f t="shared" ref="H23" si="7">SUM(H17:H22)*24</f>
@@ -1587,7 +1591,7 @@
       </c>
       <c r="G60" s="14">
         <f t="shared" si="44"/>
-        <v>13.666666666666666</v>
+        <v>18.666666666666664</v>
       </c>
       <c r="H60" s="14">
         <f t="shared" si="44"/>

--- a/Urendeclaratie.xlsx
+++ b/Urendeclaratie.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="30">
   <si>
     <t>TAKEN</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>TOTAALDOCUMENT O4 verbetering/revisie</t>
+  </si>
+  <si>
+    <t>Database Document</t>
   </si>
 </sst>
 </file>
@@ -534,7 +537,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -544,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -994,7 +997,9 @@
       <c r="C20" s="7"/>
       <c r="D20" s="12"/>
       <c r="E20" s="7"/>
-      <c r="G20" s="12"/>
+      <c r="G20" s="12">
+        <v>0</v>
+      </c>
       <c r="I20" s="12"/>
     </row>
     <row r="21" spans="1:9">
@@ -1006,7 +1011,9 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="E21" s="12"/>
-      <c r="G21" s="12"/>
+      <c r="G21" s="12">
+        <v>0</v>
+      </c>
       <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9">
@@ -1015,7 +1022,9 @@
       </c>
       <c r="B22" s="9"/>
       <c r="E22" s="12"/>
-      <c r="G22" s="12"/>
+      <c r="G22" s="12">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9">
@@ -1044,7 +1053,7 @@
       </c>
       <c r="G23" s="13">
         <f t="shared" ref="G23" si="6">SUM(G17:G22)*24</f>
-        <v>5</v>
+        <v>5.9999999999999991</v>
       </c>
       <c r="H23" s="13">
         <f t="shared" ref="H23" si="7">SUM(H17:H22)*24</f>
@@ -1076,7 +1085,9 @@
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
-      <c r="G25" s="12"/>
+      <c r="G25" s="12">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="I25" s="12"/>
     </row>
     <row r="26" spans="1:9">
@@ -1087,7 +1098,9 @@
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
-      <c r="G26" s="12"/>
+      <c r="G26" s="12">
+        <v>0</v>
+      </c>
       <c r="I26" s="12"/>
     </row>
     <row r="27" spans="1:9">
@@ -1098,7 +1111,9 @@
       <c r="C27" s="7"/>
       <c r="D27" s="12"/>
       <c r="E27" s="7"/>
-      <c r="G27" s="12"/>
+      <c r="G27" s="12">
+        <v>0</v>
+      </c>
       <c r="I27" s="12"/>
     </row>
     <row r="28" spans="1:9">
@@ -1108,16 +1123,20 @@
       <c r="B28" s="9"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
-      <c r="G28" s="12"/>
+      <c r="G28" s="12">
+        <v>0</v>
+      </c>
       <c r="I28" s="12"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="11" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B29" s="9"/>
       <c r="E29" s="12"/>
-      <c r="G29" s="12"/>
+      <c r="G29" s="12">
+        <v>0.10416666666666667</v>
+      </c>
       <c r="I29" s="12"/>
     </row>
     <row r="30" spans="1:9">
@@ -1146,7 +1165,7 @@
       </c>
       <c r="G30" s="13">
         <f t="shared" ref="G30" si="13">SUM(G24:G29)*24</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="H30" s="13">
         <f t="shared" ref="H30" si="14">SUM(H24:H29)*24</f>
@@ -1215,7 +1234,7 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="11" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B36" s="9"/>
       <c r="E36" s="12"/>
@@ -1591,7 +1610,7 @@
       </c>
       <c r="G60" s="14">
         <f t="shared" si="44"/>
-        <v>18.666666666666664</v>
+        <v>23.166666666666664</v>
       </c>
       <c r="H60" s="14">
         <f t="shared" si="44"/>

--- a/Urendeclaratie.xlsx
+++ b/Urendeclaratie.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="31">
   <si>
     <t>TAKEN</t>
   </si>
@@ -108,7 +108,10 @@
     <t>TOTAALDOCUMENT O4 verbetering/revisie</t>
   </si>
   <si>
-    <t>Database Document</t>
+    <t>UCD EN AD DOCUMENT</t>
+  </si>
+  <si>
+    <t>DATABASE DOCUMENT</t>
   </si>
 </sst>
 </file>
@@ -537,7 +540,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -548,7 +551,7 @@
   <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1118,7 +1121,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="11" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B28" s="9"/>
       <c r="D28" s="12"/>
@@ -1130,7 +1133,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B29" s="9"/>
       <c r="E29" s="12"/>
@@ -1197,7 +1200,9 @@
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
-      <c r="G32" s="12"/>
+      <c r="G32" s="12">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="I32" s="12"/>
     </row>
     <row r="33" spans="1:9">
@@ -1208,7 +1213,9 @@
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
-      <c r="G33" s="12"/>
+      <c r="G33" s="12">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="I33" s="12"/>
     </row>
     <row r="34" spans="1:9">
@@ -1219,26 +1226,32 @@
       <c r="C34" s="7"/>
       <c r="D34" s="12"/>
       <c r="E34" s="7"/>
-      <c r="G34" s="12"/>
+      <c r="G34" s="12">
+        <v>0</v>
+      </c>
       <c r="I34" s="12"/>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="11" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B35" s="9"/>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
-      <c r="G35" s="12"/>
+      <c r="G35" s="12">
+        <v>0</v>
+      </c>
       <c r="I35" s="12"/>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B36" s="9"/>
       <c r="E36" s="12"/>
-      <c r="G36" s="12"/>
+      <c r="G36" s="12">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="I36" s="12"/>
     </row>
     <row r="37" spans="1:9">
@@ -1267,7 +1280,7 @@
       </c>
       <c r="G37" s="13">
         <f t="shared" ref="G37" si="20">SUM(G31:G36)*24</f>
-        <v>0</v>
+        <v>5.9999999999999991</v>
       </c>
       <c r="H37" s="13">
         <f t="shared" ref="H37" si="21">SUM(H31:H36)*24</f>
@@ -1299,7 +1312,9 @@
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
-      <c r="G39" s="12"/>
+      <c r="G39" s="12">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="I39" s="12"/>
     </row>
     <row r="40" spans="1:9">
@@ -1326,7 +1341,7 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="11" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B42" s="9"/>
       <c r="D42" s="12"/>
@@ -1336,7 +1351,7 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="11" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B43" s="9"/>
       <c r="E43" s="12"/>
@@ -1369,7 +1384,7 @@
       </c>
       <c r="G44" s="13">
         <f t="shared" ref="G44" si="27">SUM(G38:G43)*24</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" s="13">
         <f t="shared" ref="H44" si="28">SUM(H38:H43)*24</f>
@@ -1610,7 +1625,7 @@
       </c>
       <c r="G60" s="14">
         <f t="shared" si="44"/>
-        <v>23.166666666666664</v>
+        <v>30.166666666666664</v>
       </c>
       <c r="H60" s="14">
         <f t="shared" si="44"/>
